--- a/Sandhaiapp_Chellappan_Challenge5/Submission Sheet- Innovation Track Chellappan Challenge5.xlsx
+++ b/Sandhaiapp_Chellappan_Challenge5/Submission Sheet- Innovation Track Chellappan Challenge5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinothsunder/Documents/Sandhaiapp_Chellappan_Challenge5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinothsunder/Documents/GitHub/innovation-agri-hackathon/Sandhaiapp_Chellappan_Challenge5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFC827A-DBE4-3947-B554-26635BA7220D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7492B9-1A98-6F4A-A986-BA5E3BE6EF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48960" yWindow="2200" windowWidth="51200" windowHeight="27280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <r>
       <rPr>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Chellappan,Thileepan</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Assuming the Height of the pallet is less than the height of the container/Vehicle and if its small can be stacked.</t>
@@ -577,19 +574,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -868,7 +865,7 @@
   <dimension ref="A1:AG1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1165,13 +1162,13 @@
       <c r="AG7" s="24"/>
     </row>
     <row r="8" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="36">
+      <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="38" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="25">
@@ -1181,14 +1178,14 @@
         <v>19</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -1323,13 +1320,13 @@
       <c r="AG11" s="18"/>
     </row>
     <row r="12" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="36">
+      <c r="A12" s="33">
         <v>2</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="25">
@@ -1339,14 +1336,14 @@
         <v>19</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
@@ -1481,13 +1478,13 @@
       <c r="AG15" s="18"/>
     </row>
     <row r="16" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="36">
+      <c r="A16" s="33">
         <v>3</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="25">
@@ -1497,14 +1494,14 @@
         <v>19</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="39"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
@@ -1717,13 +1714,13 @@
       <c r="AG21" s="18"/>
     </row>
     <row r="22" spans="1:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="36">
+      <c r="A22" s="33">
         <v>4</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="25">
@@ -1733,14 +1730,14 @@
         <v>19</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -1875,13 +1872,13 @@
       <c r="AG25" s="18"/>
     </row>
     <row r="26" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="36">
+      <c r="A26" s="33">
         <v>5</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="25">
@@ -1893,29 +1890,29 @@
       <c r="F26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="I26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="J26" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="K26" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="L26" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="M26" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="N26" s="38" t="s">
         <v>40</v>
-      </c>
-      <c r="N26" s="33" t="s">
-        <v>41</v>
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -1989,7 +1986,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
@@ -2030,7 +2027,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
@@ -2112,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -2178,13 +2175,13 @@
       <c r="AG32" s="18"/>
     </row>
     <row r="33" spans="1:33" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="36">
+      <c r="A33" s="33">
         <v>6</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="25">
@@ -2194,14 +2191,14 @@
         <v>19</v>
       </c>
       <c r="F33" s="29"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -36116,11 +36113,56 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K26:K30"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="M26:M30"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="M33:M36"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="K16:K20"/>
     <mergeCell ref="L16:L20"/>
@@ -36133,56 +36175,11 @@
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="M12:M14"/>
     <mergeCell ref="N12:N14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="M33:M36"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="K26:K30"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="M26:M30"/>
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="H16:H20"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E1001">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
